--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_DLToanThang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_DLToanThang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -731,6 +731,15 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -768,15 +777,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1141,42 +1141,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="66"/>
@@ -1195,12 +1195,12 @@
       <c r="V2" s="32"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="67"/>
@@ -1219,57 +1219,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="84" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1294,23 +1294,23 @@
       <c r="I5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1391,7 +1391,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1419,7 +1419,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1447,7 +1447,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1475,7 +1475,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1561,7 +1561,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2779,11 +2779,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2797,6 +2792,11 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="A2:D3"/>
     <mergeCell ref="E2:F3"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2807,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2839,30 +2839,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="s">
@@ -2917,57 +2917,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="84" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -2992,23 +2992,23 @@
       <c r="I5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3171,7 +3171,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3199,7 +3199,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3285,7 +3285,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -4503,13 +4503,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4521,6 +4514,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4531,8 +4531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4563,31 +4563,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="s">
@@ -4644,42 +4644,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="97" t="s">
@@ -4687,15 +4687,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4720,50 +4720,76 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
       <c r="S5" s="98"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
+      <c r="B6" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="57">
+        <v>868183034775333</v>
+      </c>
       <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
+      <c r="G6" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="56"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
+      <c r="I6" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="K6" s="61"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
+      <c r="L6" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>73</v>
+      </c>
       <c r="N6" s="60"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="56"/>
+      <c r="O6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="88" t="s">
+      <c r="V6" s="75" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4774,27 +4800,53 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
+      <c r="B7" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="57">
+        <v>868183035889372</v>
+      </c>
       <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="G7" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H7" s="56"/>
-      <c r="I7" s="58"/>
+      <c r="I7" s="70" t="s">
+        <v>79</v>
+      </c>
       <c r="J7" s="58"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
+      <c r="K7" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>39</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="61"/>
+      <c r="O7" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="89"/>
+      <c r="V7" s="76"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -4803,27 +4855,53 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="57">
+        <v>868183035879050</v>
+      </c>
       <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
+      <c r="G8" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H8" s="56"/>
-      <c r="I8" s="58"/>
+      <c r="I8" s="70" t="s">
+        <v>78</v>
+      </c>
       <c r="J8" s="58"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="K8" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="89"/>
+      <c r="V8" s="76"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4852,7 +4930,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="89"/>
+      <c r="V9" s="76"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -4881,7 +4959,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="89"/>
+      <c r="V10" s="76"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4910,7 +4988,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="89"/>
+      <c r="V11" s="76"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4939,7 +5017,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="88" t="s">
+      <c r="V12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4970,7 +5048,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="89"/>
+      <c r="V13" s="76"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -4999,7 +5077,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="89"/>
+      <c r="V14" s="76"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -5028,7 +5106,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="89"/>
+      <c r="V15" s="76"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -5057,7 +5135,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="90"/>
+      <c r="V16" s="77"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5176,7 +5254,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5549,7 +5627,7 @@
       </c>
       <c r="W32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5645,7 +5723,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5709,7 +5787,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5976,7 +6054,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6008,7 +6086,7 @@
       </c>
       <c r="W47" s="11">
         <f>COUNTIF($D$6:$D$105,"TG007X")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7638,6 +7716,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7648,16 +7736,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
